--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2158.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2158.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.438492989830359</v>
+        <v>0.9245747923851013</v>
       </c>
       <c r="B1">
-        <v>3.047778045375702</v>
+        <v>1.55974280834198</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.133217183340375</v>
+        <v>1.61381733417511</v>
       </c>
       <c r="E1">
-        <v>0.6524230849855164</v>
+        <v>1.054721474647522</v>
       </c>
     </row>
   </sheetData>
